--- a/Assignment4/Scenes_ExcelSheet.xlsx
+++ b/Assignment4/Scenes_ExcelSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiss\Amrita\SecondSem\ComputerVision\CaseStudy\LaneDetection\lane_detection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f1\lane_detection\Assignment4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C75D95B-0C0C-4A62-9614-0AD5948093B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB82757A-5166-44B7-B765-36BB07E788FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="7980" xr2:uid="{92E58B98-A324-43E6-A747-6F6A67D8FE0B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{92E58B98-A324-43E6-A747-6F6A67D8FE0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -124,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -147,18 +142,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,186 +500,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D735AB2F-45E7-48F6-AF4F-8EFA3210DCB8}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A2:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:M1"/>
+  <mergeCells count="2">
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assignment4/Scenes_ExcelSheet.xlsx
+++ b/Assignment4/Scenes_ExcelSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f1\lane_detection\Assignment4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiss\Amrita\SecondSem\ComputerVision\CaseStudy\LaneDetection\lane_detection\Assignment4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB82757A-5166-44B7-B765-36BB07E788FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E528AFE-8D0B-451B-BE6F-B2CE2736CD30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{92E58B98-A324-43E6-A747-6F6A67D8FE0B}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{92E58B98-A324-43E6-A747-6F6A67D8FE0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,18 +172,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,174 +510,174 @@
   <dimension ref="A2:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="8" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
